--- a/02-streamJob/job.xlsx
+++ b/02-streamJob/job.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lay/LayD/个人/CODE/Web/02-streamJob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231C473-21F6-C84E-9DE1-C5E244DD3457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3557349-A042-FF47-BAC4-5BEF76DF39E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{831CB951-97CE-9D4E-A230-9FD68C2CB88C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>中国电建集团透平科技有限公司</t>
   </si>
@@ -100,48 +100,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>薪资范围</t>
+    <t>薪资起</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1000-2000</t>
+    <t>薪资止</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000-2001</t>
-  </si>
-  <si>
-    <t>1000-2002</t>
-  </si>
-  <si>
-    <t>1000-2003</t>
-  </si>
-  <si>
-    <t>1000-2004</t>
-  </si>
-  <si>
-    <t>1000-2005</t>
-  </si>
-  <si>
-    <t>1000-2006</t>
-  </si>
-  <si>
-    <t>1000-2007</t>
-  </si>
-  <si>
-    <t>1000-2008</t>
-  </si>
-  <si>
-    <t>1000-2009</t>
-  </si>
-  <si>
-    <t>1000-2010</t>
-  </si>
-  <si>
-    <t>1000-2011</t>
-  </si>
-  <si>
-    <t>1000-2012</t>
   </si>
 </sst>
 </file>
@@ -230,13 +194,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -574,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B392CD8-CB27-1046-B08D-2B7C3FFC80EE}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -586,7 +550,7 @@
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -596,148 +560,190 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
+      <c r="C4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
+      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
